--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_28.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1536804.806614922</v>
+        <v>1561319.48808584</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1151840.918742178</v>
+        <v>1151840.918742179</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14661612.74404855</v>
+        <v>14661612.74404854</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>53.51252900994975</v>
       </c>
       <c r="G2" t="n">
-        <v>35.18454619735122</v>
+        <v>37.14313633741891</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,10 +701,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S2" t="n">
         <v>53.51252900994975</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>46.38724422570589</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -783,17 +783,17 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="S3" t="n">
+      <c r="U3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>46.38724422570589</v>
       </c>
     </row>
     <row r="4">
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,34 +856,34 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.170977004479174</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>26.16190956546853</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G5" t="n">
         <v>241.0142888776591</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -987,16 +987,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>213.3278886065147</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>130.4655268502615</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C8" t="n">
+      <c r="F8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>190.1066023865956</v>
-      </c>
-      <c r="F8" t="n">
-        <v>6.876045741711437</v>
-      </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -1266,19 +1266,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>151.27808017072</v>
       </c>
       <c r="X9" t="n">
-        <v>3.833957768458675</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1412,31 +1412,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V11" t="n">
-        <v>212.285385643442</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>82.28530073128378</v>
       </c>
       <c r="T12" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1567,10 +1567,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>241.0142888776591</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="G14" t="n">
         <v>241.0142888776591</v>
@@ -1625,7 +1625,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>200.3360962888296</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1698,16 +1698,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,19 +1731,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>123.1420636930511</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>99.13012673870388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1850,16 +1850,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>7.778646031951277</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>120.9273370453295</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -1886,13 +1886,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>62.13484214871499</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1941,7 +1941,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -2041,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -2053,10 +2053,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U19" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2078,11 +2078,11 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>21.18375537072436</v>
-      </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2169,19 +2169,19 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>98.22847700514947</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>111.9316391042812</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,25 +2205,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2324,58 +2324,58 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>3.265316057196634</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2394,13 +2394,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>71.31516562868923</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2409,10 +2409,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2448,10 +2448,10 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>52.89562800289948</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2515,19 +2515,19 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2555,70 +2555,70 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>19.72793538656374</v>
-      </c>
-      <c r="T26" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,13 +2682,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>200.433572294082</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2697,10 +2697,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="28">
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2755,13 +2755,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2792,14 +2792,14 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.809496073036188</v>
+        <v>33.80371536444981</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2880,13 +2880,13 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>23.17871577922039</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2922,19 +2922,19 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>17.37254956828078</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2959,43 +2959,43 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3029,64 +3029,64 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
         <v>241.0142888776591</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3117,19 +3117,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>72.87685072029042</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>82.80811485025664</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3159,13 +3159,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3226,13 +3226,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3244,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3275,19 +3275,19 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3308,13 +3308,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>11.86372679529251</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3326,10 +3326,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,28 +3342,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>75.2377801170462</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>97.14300457665125</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3466,16 +3466,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3515,10 +3515,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U38" t="n">
         <v>241.0142888776591</v>
@@ -3563,7 +3563,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3579,16 +3579,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>142.8009741436498</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3627,25 +3627,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>90.90725545139041</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3743,25 +3743,25 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3782,13 +3782,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>71.01467844038818</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3867,10 +3867,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>34.66067414728066</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>63.88882306452221</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -3898,64 +3898,64 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>220.2131257424249</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4037,13 +4037,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4056,25 +4056,25 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>29.8169472598111</v>
+        <v>148.4455767156579</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4116,10 +4116,10 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>105.9439968277793</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="C2" t="n">
-        <v>105.9439968277793</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="D2" t="n">
-        <v>105.9439968277793</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="E2" t="n">
-        <v>105.9439968277793</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="F2" t="n">
-        <v>51.89093722176946</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="G2" t="n">
-        <v>16.35099156787933</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H2" t="n">
-        <v>16.35099156787933</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I2" t="n">
-        <v>16.35099156787933</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J2" t="n">
         <v>4.28100232079598</v>
@@ -4334,46 +4334,46 @@
         <v>57.25840604064623</v>
       </c>
       <c r="L2" t="n">
-        <v>108.0953086000985</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="M2" t="n">
         <v>161.0727123199487</v>
       </c>
       <c r="N2" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="O2" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>214.050116039799</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="S2" t="n">
-        <v>159.9970564337892</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="T2" t="n">
-        <v>159.9970564337892</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="U2" t="n">
-        <v>159.9970564337892</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="V2" t="n">
-        <v>159.9970564337892</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="W2" t="n">
-        <v>159.9970564337892</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="X2" t="n">
-        <v>159.9970564337892</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="Y2" t="n">
-        <v>159.9970564337892</v>
+        <v>95.85238145955221</v>
       </c>
     </row>
     <row r="3">
@@ -4422,22 +4422,22 @@
         <v>108.0953086000985</v>
       </c>
       <c r="O3" t="n">
+        <v>108.0953086000985</v>
+      </c>
+      <c r="P3" t="n">
         <v>161.0727123199487</v>
-      </c>
-      <c r="P3" t="n">
-        <v>214.050116039799</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
+        <v>214.050116039799</v>
+      </c>
+      <c r="S3" t="n">
+        <v>214.050116039799</v>
+      </c>
+      <c r="T3" t="n">
         <v>159.9970564337892</v>
-      </c>
-      <c r="S3" t="n">
-        <v>105.9439968277793</v>
-      </c>
-      <c r="T3" t="n">
-        <v>105.9439968277793</v>
       </c>
       <c r="U3" t="n">
         <v>105.9439968277793</v>
@@ -4449,10 +4449,10 @@
         <v>105.9439968277793</v>
       </c>
       <c r="X3" t="n">
+        <v>105.9439968277793</v>
+      </c>
+      <c r="Y3" t="n">
         <v>51.89093722176946</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>5.035134973581694</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26.77543850855644</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="C4" t="n">
-        <v>26.77543850855644</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="D4" t="n">
-        <v>26.77543850855644</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="E4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K4" t="n">
         <v>4.28100232079598</v>
@@ -4504,34 +4504,34 @@
         <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.01130316959576</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="R4" t="n">
-        <v>82.01130316959576</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="S4" t="n">
-        <v>82.01130316959576</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="T4" t="n">
-        <v>27.95824356358591</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="U4" t="n">
-        <v>26.77543850855644</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="V4" t="n">
-        <v>26.77543850855644</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="W4" t="n">
-        <v>26.77543850855644</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="X4" t="n">
-        <v>26.77543850855644</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="Y4" t="n">
-        <v>26.77543850855644</v>
+        <v>58.33406192680583</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C5" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D5" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E5" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F5" t="n">
         <v>262.7299197543128</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X5" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y5" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>817.1412885554689</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4650,19 +4650,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4671,25 +4671,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8876260635219</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="W6" t="n">
-        <v>862.8876260635219</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="X6" t="n">
-        <v>862.8876260635219</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="Y6" t="n">
-        <v>862.8876260635219</v>
+        <v>473.9875657500345</v>
       </c>
     </row>
     <row r="7">
@@ -4717,7 +4717,7 @@
         <v>151.0645035650224</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I7" t="n">
         <v>19.28114311021272</v>
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="C8" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="D8" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="E8" t="n">
         <v>477.1596022224361</v>
       </c>
-      <c r="C8" t="n">
+      <c r="F8" t="n">
         <v>233.7108255783361</v>
       </c>
-      <c r="D8" t="n">
-        <v>233.7108255783361</v>
-      </c>
-      <c r="E8" t="n">
-        <v>41.68395448076474</v>
-      </c>
-      <c r="F8" t="n">
-        <v>34.73845373156126</v>
-      </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4835,13 +4835,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X8" t="n">
         <v>720.6083788665362</v>
@@ -4890,10 +4890,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N9" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
         <v>712.019119383956</v>
@@ -4905,25 +4905,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U9" t="n">
-        <v>259.0600686093459</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V9" t="n">
-        <v>23.90796037760316</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W9" t="n">
-        <v>23.90796037760316</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X9" t="n">
-        <v>20.03527576299844</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y9" t="n">
         <v>20.03527576299844</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4999,13 +4999,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5060,28 +5060,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V11" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W11" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y11" t="n">
         <v>19.28114311021272</v>
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5124,7 +5124,7 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
         <v>542.809531908403</v>
@@ -5145,25 +5145,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>880.9406901255011</v>
       </c>
       <c r="T12" t="n">
-        <v>933.9571464551993</v>
+        <v>880.9406901255011</v>
       </c>
       <c r="U12" t="n">
-        <v>705.7335281915883</v>
+        <v>880.9406901255011</v>
       </c>
       <c r="V12" t="n">
-        <v>470.5814199598456</v>
+        <v>645.7885818937584</v>
       </c>
       <c r="W12" t="n">
-        <v>227.1326433157456</v>
+        <v>402.3398052496583</v>
       </c>
       <c r="X12" t="n">
-        <v>19.28114311021272</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H13" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I13" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J13" t="n">
         <v>41.77557929797318</v>
@@ -5215,34 +5215,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5264,13 +5264,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="F14" t="n">
-        <v>720.6083788665362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G14" t="n">
-        <v>477.1596022224361</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H14" t="n">
-        <v>233.7108255783361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I14" t="n">
         <v>31.35113235729608</v>
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5361,13 +5361,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M15" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N15" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
         <v>781.4136778972854</v>
@@ -5379,28 +5379,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T15" t="n">
-        <v>790.6398109613051</v>
+        <v>738.5017031412481</v>
       </c>
       <c r="U15" t="n">
-        <v>562.4161926976942</v>
+        <v>738.5017031412481</v>
       </c>
       <c r="V15" t="n">
-        <v>327.2640844659515</v>
+        <v>738.5017031412481</v>
       </c>
       <c r="W15" t="n">
-        <v>327.2640844659515</v>
+        <v>738.5017031412481</v>
       </c>
       <c r="X15" t="n">
-        <v>119.4125842604187</v>
+        <v>530.6502029357152</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.28114311021272</v>
+        <v>530.6502029357152</v>
       </c>
     </row>
     <row r="16">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>738.7078125165641</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C17" t="n">
-        <v>738.7078125165641</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D17" t="n">
-        <v>738.7078125165641</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E17" t="n">
-        <v>730.8505943024719</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F17" t="n">
-        <v>487.4018176583718</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="G17" t="n">
-        <v>243.9530410142718</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="H17" t="n">
         <v>243.9530410142718</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>738.7078125165641</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>738.7078125165641</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V17" t="n">
-        <v>738.7078125165641</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W17" t="n">
-        <v>738.7078125165641</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X17" t="n">
-        <v>738.7078125165641</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y17" t="n">
-        <v>738.7078125165641</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>901.2946886937524</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5598,13 +5598,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O18" t="n">
         <v>781.4136778972854</v>
@@ -5689,19 +5689,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>40.6788758079141</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
         <v>19.28114311021272</v>
@@ -5777,25 +5777,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>284.1276524520142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
-        <v>284.1276524520142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>284.1276524520142</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>257.2326523711826</v>
+        <v>246.4666730769152</v>
       </c>
       <c r="C21" t="n">
-        <v>257.2326523711826</v>
+        <v>246.4666730769152</v>
       </c>
       <c r="D21" t="n">
-        <v>257.2326523711826</v>
+        <v>246.4666730769152</v>
       </c>
       <c r="E21" t="n">
-        <v>257.2326523711826</v>
+        <v>246.4666730769152</v>
       </c>
       <c r="F21" t="n">
-        <v>158.0119685275972</v>
+        <v>246.4666730769152</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5841,40 +5841,40 @@
         <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U21" t="n">
-        <v>735.8335372470253</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V21" t="n">
-        <v>500.6814290152826</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W21" t="n">
-        <v>257.2326523711826</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="X21" t="n">
-        <v>257.2326523711826</v>
+        <v>246.4666730769152</v>
       </c>
       <c r="Y21" t="n">
-        <v>257.2326523711826</v>
+        <v>246.4666730769152</v>
       </c>
     </row>
     <row r="22">
@@ -5932,10 +5932,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
         <v>19.28114311021272</v>
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="F23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6014,25 +6014,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>456.0377176450116</v>
+        <v>332.4649978087242</v>
       </c>
       <c r="C24" t="n">
-        <v>281.5846883638847</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D24" t="n">
-        <v>132.6502787026334</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E24" t="n">
-        <v>132.6502787026334</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F24" t="n">
-        <v>132.6502787026334</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G24" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6075,16 +6075,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6096,22 +6096,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>735.8335372470253</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V24" t="n">
-        <v>735.8335372470253</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W24" t="n">
-        <v>735.8335372470253</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X24" t="n">
-        <v>735.8335372470253</v>
+        <v>708.4406335937462</v>
       </c>
       <c r="Y24" t="n">
-        <v>528.0732384820715</v>
+        <v>500.6803348287922</v>
       </c>
     </row>
     <row r="25">
@@ -6163,16 +6163,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
         <v>19.28114311021272</v>
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>475.3318284112885</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C26" t="n">
-        <v>475.3318284112885</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D26" t="n">
-        <v>475.3318284112885</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6251,25 +6251,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>944.1299480494607</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>475.3318284112885</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>475.3318284112885</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X26" t="n">
-        <v>475.3318284112885</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y26" t="n">
-        <v>475.3318284112885</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6306,22 +6306,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6330,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>588.181657128899</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>353.0295488971563</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>109.5807722530562</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>109.5807722530562</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>66.78106667958005</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>66.78106667958005</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T28" t="n">
-        <v>66.78106667958005</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U28" t="n">
-        <v>66.78106667958005</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V28" t="n">
-        <v>66.78106667958005</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W28" t="n">
-        <v>66.78106667958005</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X28" t="n">
-        <v>66.78106667958005</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y28" t="n">
-        <v>66.78106667958005</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>477.1596022224361</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="C29" t="n">
-        <v>233.7108255783361</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="D29" t="n">
-        <v>233.7108255783361</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="E29" t="n">
-        <v>233.7108255783361</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="F29" t="n">
-        <v>233.7108255783361</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="G29" t="n">
-        <v>233.7108255783361</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="H29" t="n">
         <v>231.8830517671884</v>
@@ -6488,25 +6488,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U29" t="n">
-        <v>720.6083788665362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V29" t="n">
-        <v>720.6083788665362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W29" t="n">
-        <v>720.6083788665362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X29" t="n">
-        <v>720.6083788665362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="Y29" t="n">
-        <v>477.1596022224361</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>156.0631229240681</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="C30" t="n">
-        <v>156.0631229240681</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D30" t="n">
-        <v>156.0631229240681</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E30" t="n">
-        <v>156.0631229240681</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F30" t="n">
-        <v>156.0631229240681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6543,22 +6543,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>496.4894350879777</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O30" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6570,22 +6570,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>845.3395961965716</v>
       </c>
       <c r="U30" t="n">
-        <v>634.6640077999109</v>
+        <v>617.1159779329607</v>
       </c>
       <c r="V30" t="n">
-        <v>399.5118995681682</v>
+        <v>617.1159779329607</v>
       </c>
       <c r="W30" t="n">
-        <v>156.0631229240681</v>
+        <v>373.6672012888606</v>
       </c>
       <c r="X30" t="n">
-        <v>156.0631229240681</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="Y30" t="n">
-        <v>156.0631229240681</v>
+        <v>165.8157010833278</v>
       </c>
     </row>
     <row r="31">
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F31" t="n">
         <v>829.5248650203655</v>
@@ -6643,28 +6643,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>477.1596022224361</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C32" t="n">
         <v>233.7108255783361</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6731,19 +6731,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W32" t="n">
-        <v>720.6083788665362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="X32" t="n">
-        <v>720.6083788665362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y32" t="n">
-        <v>477.1596022224361</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>689.4702815141908</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="C33" t="n">
-        <v>515.0172522330638</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="D33" t="n">
-        <v>515.0172522330638</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="E33" t="n">
-        <v>355.7797972276083</v>
+        <v>92.8941236357586</v>
       </c>
       <c r="F33" t="n">
-        <v>355.7797972276083</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>217.0489718102238</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>103.6798362178031</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6783,10 +6783,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M33" t="n">
-        <v>383.2428491569326</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N33" t="n">
         <v>542.809531908403</v>
@@ -6807,22 +6807,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>689.4702815141908</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U33" t="n">
-        <v>689.4702815141908</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V33" t="n">
-        <v>689.4702815141908</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="W33" t="n">
-        <v>689.4702815141908</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="X33" t="n">
-        <v>689.4702815141908</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="Y33" t="n">
-        <v>689.4702815141908</v>
+        <v>252.1315786412141</v>
       </c>
     </row>
     <row r="34">
@@ -6874,22 +6874,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
         <v>19.28114311021272</v>
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>477.1596022224361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="C35" t="n">
-        <v>477.1596022224361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="D35" t="n">
-        <v>477.1596022224361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="E35" t="n">
-        <v>477.1596022224361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="F35" t="n">
-        <v>233.7108255783361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>941.9819777229218</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="V35" t="n">
-        <v>720.6083788665362</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="W35" t="n">
-        <v>477.1596022224361</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="X35" t="n">
-        <v>477.1596022224361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="Y35" t="n">
-        <v>477.1596022224361</v>
+        <v>243.9530410142718</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>689.4702815141908</v>
+        <v>489.9572726784918</v>
       </c>
       <c r="C36" t="n">
-        <v>689.4702815141908</v>
+        <v>315.5042433973647</v>
       </c>
       <c r="D36" t="n">
-        <v>540.5358718529395</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="E36" t="n">
-        <v>381.298416847484</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F36" t="n">
-        <v>234.763858874369</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>96.0330334569845</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>96.0330334569845</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
         <v>20.03527576299844</v>
@@ -7017,49 +7017,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>865.9329084635137</v>
       </c>
       <c r="T36" t="n">
-        <v>689.4702815141908</v>
+        <v>865.9329084635137</v>
       </c>
       <c r="U36" t="n">
-        <v>689.4702815141908</v>
+        <v>865.9329084635137</v>
       </c>
       <c r="V36" t="n">
-        <v>689.4702815141908</v>
+        <v>865.9329084635137</v>
       </c>
       <c r="W36" t="n">
-        <v>689.4702815141908</v>
+        <v>865.9329084635137</v>
       </c>
       <c r="X36" t="n">
-        <v>689.4702815141908</v>
+        <v>865.9329084635137</v>
       </c>
       <c r="Y36" t="n">
-        <v>689.4702815141908</v>
+        <v>658.1726096985599</v>
       </c>
     </row>
     <row r="37">
@@ -7114,13 +7114,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
         <v>19.28114311021272</v>
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C38" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V38" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W38" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X38" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y38" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>486.9119902784999</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>312.4589609973729</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>163.5245513361216</v>
       </c>
       <c r="E39" t="n">
         <v>19.28114311021272</v>
@@ -7257,16 +7257,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N39" t="n">
-        <v>726.4525409563269</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O39" t="n">
-        <v>726.4525409563269</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
         <v>894.6625969973069</v>
@@ -7275,28 +7275,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U39" t="n">
-        <v>670.0450503124422</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V39" t="n">
-        <v>434.8929420806995</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W39" t="n">
-        <v>434.8929420806995</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X39" t="n">
-        <v>227.0414418751666</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>655.1273272985679</v>
       </c>
     </row>
     <row r="40">
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E40" t="n">
         <v>829.5248650203655</v>
@@ -7357,25 +7357,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>487.4018176583718</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="C41" t="n">
-        <v>487.4018176583718</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="D41" t="n">
-        <v>243.9530410142718</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="E41" t="n">
-        <v>243.9530410142718</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="F41" t="n">
-        <v>243.9530410142718</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="G41" t="n">
-        <v>243.9530410142718</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="H41" t="n">
-        <v>243.9530410142718</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7430,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>730.8505943024719</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T41" t="n">
-        <v>730.8505943024719</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U41" t="n">
-        <v>730.8505943024719</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V41" t="n">
-        <v>487.4018176583718</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W41" t="n">
-        <v>487.4018176583718</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X41" t="n">
-        <v>487.4018176583718</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y41" t="n">
-        <v>487.4018176583718</v>
+        <v>752.9257720901863</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7500,10 +7500,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O42" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
         <v>894.6625969973069</v>
@@ -7515,25 +7515,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>929.0463735436861</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>726.8597789024521</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U42" t="n">
-        <v>498.6361606388412</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V42" t="n">
-        <v>263.4840524070985</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="43">
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
         <v>19.28114311021272</v>
@@ -7603,16 +7603,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
         <v>19.28114311021272</v>
@@ -7673,25 +7673,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T44" t="n">
-        <v>728.6161971483371</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U44" t="n">
-        <v>728.6161971483371</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V44" t="n">
-        <v>728.6161971483371</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W44" t="n">
-        <v>485.167420504237</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X44" t="n">
-        <v>485.167420504237</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.7186438601369</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>756.2056553051034</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="C45" t="n">
-        <v>726.0875267598396</v>
+        <v>397.246007331692</v>
       </c>
       <c r="D45" t="n">
-        <v>577.1531170985884</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="E45" t="n">
-        <v>417.9156620931329</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="F45" t="n">
-        <v>271.3811041200179</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="G45" t="n">
-        <v>132.6502787026334</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I45" t="n">
         <v>19.28114311021272</v>
@@ -7737,10 +7737,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O45" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
         <v>894.6625969973069</v>
@@ -7752,25 +7752,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V45" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W45" t="n">
-        <v>964.0571555106362</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X45" t="n">
-        <v>756.2056553051034</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="Y45" t="n">
-        <v>756.2056553051034</v>
+        <v>547.1910343172051</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C46" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D46" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E46" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F46" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G46" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H46" t="n">
         <v>829.5248650203655</v>
@@ -7831,25 +7831,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S46" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T46" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U46" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V46" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W46" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X46" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y46" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
   </sheetData>
@@ -7982,19 +7982,19 @@
         <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
-        <v>287.1168215956966</v>
+        <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
-        <v>283.8587622372225</v>
+        <v>281.6966398529821</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>282.9255926065406</v>
       </c>
       <c r="O2" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>284.7455247652193</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8070,13 +8070,13 @@
         <v>184.8542410932831</v>
       </c>
       <c r="O3" t="n">
-        <v>196.1087734543942</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>187.48693642428</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>193.4943030959713</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,22 +8298,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>174.6270615612551</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,13 +8538,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N9" t="n">
-        <v>231.1529892133072</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8772,10 +8772,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
@@ -8930,7 +8930,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9009,16 +9009,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N15" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9246,16 +9246,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>303.312501347746</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9489,7 +9489,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>301.248502863135</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,19 +9723,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,13 +10431,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>292.5201795090609</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10665,16 +10665,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>349.0484638974528</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10905,7 +10905,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
@@ -10914,10 +10914,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P39" t="n">
-        <v>303.8835549304717</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11148,13 +11148,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O42" t="n">
-        <v>185.8815939223662</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11300,7 +11300,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11385,13 +11385,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O45" t="n">
-        <v>185.8815939223662</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23300,31 +23300,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
-        <v>115.4668728266929</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W11" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23337,7 +23337,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23358,7 +23358,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23385,13 +23385,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>89.39787037255404</v>
       </c>
       <c r="T12" t="n">
-        <v>170.3657197299391</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9909793584588</v>
+        <v>150.4326837156464</v>
       </c>
       <c r="H13" t="n">
         <v>162.2271725074396</v>
@@ -23437,7 +23437,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23455,10 +23455,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23476,7 +23476,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>264.4890065639067</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23504,7 +23504,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G14" t="n">
         <v>174.288448637476</v>
@@ -23513,7 +23513,7 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>10.13979328157632</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23586,16 +23586,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,19 +23619,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>77.02266500177052</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23640,7 +23640,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>106.5525690386005</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23738,16 +23738,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>374.1517240403105</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>218.5474650704376</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23774,13 +23774,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23808,10 +23808,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>104.3983415011523</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23829,7 +23829,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23929,7 +23929,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
         <v>86.16204325169439</v>
@@ -23941,10 +23941,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
-        <v>155.8535025062293</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23966,10 +23966,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>344.0891364002832</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23978,7 +23978,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -24017,22 +24017,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24057,19 +24057,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>46.84073538823441</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>25.41187805892947</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,25 +24093,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24172,13 +24172,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24212,16 +24212,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24254,16 +24254,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U23" t="n">
-        <v>248.0803368506399</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24282,13 +24282,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>95.21801802117811</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24297,10 +24297,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24336,10 +24336,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24348,7 +24348,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>152.877357200578</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24403,19 +24403,19 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24443,13 +24443,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24461,7 +24461,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24491,22 +24491,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>189.2921341996816</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24540,7 +24540,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24570,13 +24570,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>25.50780978689281</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24585,10 +24585,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="28">
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2218967649542</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24643,13 +24643,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24680,13 +24680,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24695,7 +24695,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>337.6653060427309</v>
+        <v>305.6710867513173</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24728,25 +24728,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24768,13 +24768,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>114.1648013839902</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24810,19 +24810,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>182.7921791265408</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24847,7 +24847,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.9909793584588</v>
@@ -24883,7 +24883,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24917,16 +24917,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24971,10 +24971,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
         <v>108.226679839754</v>
@@ -24983,7 +24983,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24996,7 +24996,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25005,19 +25005,19 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>72.19236167309346</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>6.588518001158434</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25047,13 +25047,13 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25114,13 +25114,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>46.82786452690794</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25132,7 +25132,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25163,19 +25163,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,13 +25196,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>138.0053911458572</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
@@ -25214,10 +25214,10 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,28 +25230,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>14.15885273436888</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,10 +25278,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>74.54016652718657</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25299,7 +25299,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25354,16 +25354,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25403,10 +25403,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25433,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25442,7 +25442,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U38" t="n">
         <v>10.33136403017744</v>
@@ -25451,7 +25451,7 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25467,16 +25467,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>14.84410631175118</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25515,25 +25515,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>135.0341266295844</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25597,7 +25597,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25631,25 +25631,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>8.683973297415827</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25670,13 +25670,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>138.0053911458572</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
@@ -25685,7 +25685,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25728,7 +25728,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25755,10 +25755,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>137.0224969565572</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>136.2759056302994</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25843,7 +25843,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25862,13 +25862,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>162.5207159210556</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25913,10 +25913,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25925,13 +25925,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25944,25 +25944,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>142.8915517285046</v>
+        <v>24.26292227265779</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -25992,7 +25992,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26004,10 +26004,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26038,7 +26038,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I46" t="n">
         <v>155.4504749272583</v>
@@ -26071,7 +26071,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>374040.1480307134</v>
+        <v>374040.1480307136</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>374040.1480307136</v>
+        <v>374040.1480307135</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>374040.1480307134</v>
+        <v>374040.1480307135</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>374040.1480307134</v>
+        <v>374040.1480307135</v>
       </c>
     </row>
     <row r="16">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049982</v>
       </c>
       <c r="E2" t="n">
-        <v>232624.9415438653</v>
+        <v>232624.9415438654</v>
       </c>
       <c r="F2" t="n">
-        <v>232624.9415438653</v>
+        <v>232624.9415438654</v>
       </c>
       <c r="G2" t="n">
         <v>232624.9415438655</v>
@@ -26338,19 +26338,19 @@
         <v>232624.9415438654</v>
       </c>
       <c r="K2" t="n">
-        <v>232624.9415438654</v>
+        <v>232624.9415438653</v>
       </c>
       <c r="L2" t="n">
         <v>232624.9415438654</v>
       </c>
       <c r="M2" t="n">
+        <v>232624.9415438654</v>
+      </c>
+      <c r="N2" t="n">
         <v>232624.9415438653</v>
       </c>
-      <c r="N2" t="n">
-        <v>232624.9415438654</v>
-      </c>
       <c r="O2" t="n">
-        <v>232624.9415438654</v>
+        <v>232624.9415438653</v>
       </c>
       <c r="P2" t="n">
         <v>232624.9415438654</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940139</v>
+        <v>17933.27925940137</v>
       </c>
       <c r="C3" t="n">
         <v>60576.32218666811</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>350176.5876421471</v>
+        <v>347968.0377624266</v>
       </c>
       <c r="C4" t="n">
-        <v>307255.7689654693</v>
+        <v>304227.7958470787</v>
       </c>
       <c r="D4" t="n">
-        <v>307255.7689654693</v>
+        <v>304227.7958470787</v>
       </c>
       <c r="E4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="F4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="G4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="H4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="I4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="J4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="K4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="L4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="M4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="N4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="O4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="P4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>169738.2102396451</v>
+        <v>171946.7601193654</v>
       </c>
       <c r="C6" t="n">
-        <v>158615.8789890992</v>
+        <v>161643.8521074899</v>
       </c>
       <c r="D6" t="n">
-        <v>219192.2011757672</v>
+        <v>222220.1742941578</v>
       </c>
       <c r="E6" t="n">
-        <v>189661.0314490937</v>
+        <v>192689.0045674845</v>
       </c>
       <c r="F6" t="n">
-        <v>189661.0314490937</v>
+        <v>192689.0045674844</v>
       </c>
       <c r="G6" t="n">
-        <v>189661.0314490939</v>
+        <v>192689.0045674845</v>
       </c>
       <c r="H6" t="n">
-        <v>189661.0314490938</v>
+        <v>192689.0045674844</v>
       </c>
       <c r="I6" t="n">
-        <v>189661.0314490937</v>
+        <v>192689.0045674844</v>
       </c>
       <c r="J6" t="n">
-        <v>175659.7993088145</v>
+        <v>178687.7724272052</v>
       </c>
       <c r="K6" t="n">
-        <v>141404.0785154612</v>
+        <v>144432.0516338518</v>
       </c>
       <c r="L6" t="n">
-        <v>189661.0314490938</v>
+        <v>192689.0045674844</v>
       </c>
       <c r="M6" t="n">
-        <v>189661.0314490937</v>
+        <v>192689.0045674845</v>
       </c>
       <c r="N6" t="n">
-        <v>189661.0314490938</v>
+        <v>192689.0045674844</v>
       </c>
       <c r="O6" t="n">
-        <v>189661.0314490938</v>
+        <v>192689.0045674844</v>
       </c>
       <c r="P6" t="n">
-        <v>189661.0314490938</v>
+        <v>192689.0045674845</v>
       </c>
     </row>
   </sheetData>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>329.2213126535308</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27391,7 +27391,7 @@
         <v>353.3635167317617</v>
       </c>
       <c r="G2" t="n">
-        <v>380.1181913177838</v>
+        <v>378.1596011777161</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27400,7 +27400,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,10 +27421,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>96.35658893119992</v>
       </c>
       <c r="S2" t="n">
         <v>155.5075405762956</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>120.1459394241614</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27503,16 +27503,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>46.64530514269338</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>118.1706420938881</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>146.6521996848718</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>172.4288530710251</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,10 +27521,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>152.2604561935277</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>159.2954515515985</v>
+        <v>152.1701667673546</v>
       </c>
     </row>
     <row r="4">
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>92.92143363661941</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27561,7 +27561,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>32.64951424174463</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27588,10 +27588,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>174.4330604183317</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>285.1480523520117</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>172.1971263790874</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>192.4227437866263</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>162.9782053421103</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G5" t="n">
         <v>174.288448637476</v>
@@ -27658,7 +27658,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27670,7 +27670,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>121.2443095168949</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27707,16 +27707,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -27752,7 +27752,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>19.47269854291054</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27789,10 +27789,10 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>31.76164565717804</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>24.98494807699674</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>191.8237676856662</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>214.9666412263055</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27874,7 +27874,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -27986,19 +27986,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>100.4169029901996</v>
       </c>
       <c r="X9" t="n">
-        <v>201.9390274350188</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28035,7 +28035,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>175.6055225771058</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -34702,19 +34702,19 @@
         <v>53.51252900994975</v>
       </c>
       <c r="L2" t="n">
-        <v>51.35040662570935</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M2" t="n">
+        <v>51.35040662570936</v>
+      </c>
+      <c r="N2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>53.51252900994975</v>
       </c>
       <c r="O3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,13 +34942,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35018,22 +35018,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35258,13 +35258,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N9" t="n">
-        <v>99.8112771299739</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35419,7 +35419,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35492,10 +35492,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35729,16 +35729,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
+        <v>161.1784674257276</v>
+      </c>
+      <c r="N15" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N15" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35966,16 +35966,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36209,7 +36209,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>169.9067907798017</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36218,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,19 +36443,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N24" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O24" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,13 +37151,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N33" t="n">
-        <v>161.1784674257276</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37312,10 +37312,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37385,16 +37385,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>217.7067518141195</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37403,7 +37403,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
@@ -37634,10 +37634,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P39" t="n">
-        <v>169.9091475161414</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>70.09551364982758</v>
@@ -37868,13 +37868,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O42" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -38105,13 +38105,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O45" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1561319.48808584</v>
+        <v>1563643.159899708</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14661612.74404854</v>
+        <v>14661612.74404855</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5799297.052787047</v>
+        <v>5799297.052787048</v>
       </c>
     </row>
     <row r="11">
@@ -668,19 +670,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
+        <v>28.3085004556398</v>
+      </c>
+      <c r="H2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="G2" t="n">
-        <v>37.14313633741891</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,22 +703,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="S2" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,22 +737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>53.51252900994975</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>46.38724422570589</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -789,10 +791,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -804,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -823,67 +825,67 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>22.26949182588285</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.721440735106512</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.170977004479167</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="X4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>26.16190956546853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,73 +895,73 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>212.2853856434421</v>
-      </c>
       <c r="G5" t="n">
+        <v>190.3453970742847</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>134.6855069843875</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -987,16 +989,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1023,7 +1025,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1032,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>213.3278886065147</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1072,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1133,28 +1135,28 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>200.3360962888296</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>180.1159031720507</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1190,7 +1192,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1218,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1230,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -1272,10 +1274,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>151.27808017072</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>181.5346890185763</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1315,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1351,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1385,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,13 +1423,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>114.9581870864144</v>
       </c>
       <c r="U11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1449,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1461,16 +1463,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,25 +1496,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>82.28530073128378</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>213.7435569254095</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1534,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1616,55 +1618,55 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R14" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S14" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T14" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H14" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I14" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J14" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1683,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>96.52468151912586</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1698,16 +1700,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,25 +1733,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>123.1420636930511</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1853,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>120.9273370453295</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,16 +1888,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1910,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="18">
@@ -1920,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>62.13484214871499</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -1932,19 +1934,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.9166196629436</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -2044,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2053,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2078,76 +2080,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>212.285385643442</v>
-      </c>
       <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>164.8304714084692</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2172,16 +2174,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>111.9316391042812</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,25 +2207,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2318,22 +2320,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2360,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2369,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2394,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2406,13 +2408,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>38.79728810075396</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2457,13 +2459,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>52.89562800289948</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2555,20 +2557,20 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>80.33470701582003</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
@@ -2600,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2615,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>241.0142888776591</v>
@@ -2685,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -2700,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2807,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>33.80371536444981</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2834,25 +2836,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2868,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2880,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2916,19 +2918,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>17.37254956828078</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
@@ -2937,7 +2939,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>89.20720739599011</v>
       </c>
     </row>
     <row r="31">
@@ -2968,10 +2970,10 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>39.82778746869524</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3035,10 +3037,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3047,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3071,25 +3073,25 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3105,19 +3107,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>72.87685072029042</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3153,19 +3155,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3174,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>145.9272112248127</v>
       </c>
     </row>
     <row r="34">
@@ -3226,13 +3228,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3250,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3269,25 +3271,25 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3308,13 +3310,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>11.86372679529251</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3323,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3351,13 +3353,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3393,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>97.14300457665125</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3411,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>7.837102735344149</v>
       </c>
     </row>
     <row r="37">
@@ -3433,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3475,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3512,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3545,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3554,13 +3556,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>241.0142888776591</v>
@@ -3569,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3588,10 +3590,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>142.8009741436498</v>
+        <v>64.87512575056</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3603,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3639,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3648,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3667,58 +3669,58 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3746,64 +3748,64 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F41" t="n">
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G41" t="n">
+      <c r="X41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3.26531605719669</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3816,22 +3818,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>45.7693770721695</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3864,22 +3866,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>63.88882306452221</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3952,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3974,76 +3976,76 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C44" t="n">
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D44" t="n">
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4056,10 +4058,10 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>148.4455767156579</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4068,13 +4070,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>56.91690033700354</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4119,10 +4121,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4150,58 +4152,58 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>95.85238145955221</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="C2" t="n">
-        <v>95.85238145955221</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="D2" t="n">
-        <v>95.85238145955221</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="E2" t="n">
-        <v>95.85238145955221</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="F2" t="n">
-        <v>41.79932185354235</v>
+        <v>153.0515556845857</v>
       </c>
       <c r="G2" t="n">
-        <v>4.28100232079598</v>
+        <v>124.457110779899</v>
       </c>
       <c r="H2" t="n">
-        <v>4.28100232079598</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="I2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="J2" t="n">
         <v>4.28100232079598</v>
@@ -4337,43 +4339,43 @@
         <v>110.2358097604965</v>
       </c>
       <c r="M2" t="n">
-        <v>161.0727123199487</v>
+        <v>163.2132134803467</v>
       </c>
       <c r="N2" t="n">
-        <v>214.050116039799</v>
+        <v>163.2132134803467</v>
       </c>
       <c r="O2" t="n">
-        <v>214.050116039799</v>
+        <v>163.2132134803467</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>203.9585006715719</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R2" t="n">
-        <v>149.9054410655621</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S2" t="n">
-        <v>95.85238145955221</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T2" t="n">
-        <v>95.85238145955221</v>
+        <v>214.050116039799</v>
       </c>
       <c r="U2" t="n">
-        <v>95.85238145955221</v>
+        <v>214.050116039799</v>
       </c>
       <c r="V2" t="n">
-        <v>95.85238145955221</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="W2" t="n">
-        <v>95.85238145955221</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="X2" t="n">
-        <v>95.85238145955221</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="Y2" t="n">
-        <v>95.85238145955221</v>
+        <v>159.9970564337892</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.035134973581694</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="C3" t="n">
-        <v>5.035134973581694</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="D3" t="n">
-        <v>5.035134973581694</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="E3" t="n">
-        <v>5.035134973581694</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="F3" t="n">
-        <v>5.035134973581694</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="G3" t="n">
         <v>5.035134973581694</v>
@@ -4437,22 +4439,22 @@
         <v>214.050116039799</v>
       </c>
       <c r="T3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="U3" t="n">
-        <v>105.9439968277793</v>
+        <v>214.050116039799</v>
       </c>
       <c r="V3" t="n">
-        <v>105.9439968277793</v>
+        <v>214.050116039799</v>
       </c>
       <c r="W3" t="n">
-        <v>105.9439968277793</v>
+        <v>214.050116039799</v>
       </c>
       <c r="X3" t="n">
-        <v>105.9439968277793</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Y3" t="n">
-        <v>51.89093722176946</v>
+        <v>214.050116039799</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58.33406192680583</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="C4" t="n">
-        <v>58.33406192680583</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="D4" t="n">
-        <v>58.33406192680583</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="E4" t="n">
-        <v>4.28100232079598</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="F4" t="n">
-        <v>4.28100232079598</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="G4" t="n">
-        <v>4.28100232079598</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="H4" t="n">
-        <v>4.28100232079598</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="I4" t="n">
-        <v>4.28100232079598</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="J4" t="n">
-        <v>4.28100232079598</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="K4" t="n">
         <v>4.28100232079598</v>
@@ -4504,34 +4506,34 @@
         <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>138.8132928110667</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.8132928110667</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="R4" t="n">
-        <v>138.8132928110667</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="S4" t="n">
-        <v>138.8132928110667</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="T4" t="n">
-        <v>138.8132928110667</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="U4" t="n">
-        <v>138.8132928110667</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="V4" t="n">
-        <v>138.8132928110667</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="W4" t="n">
-        <v>138.8132928110667</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="X4" t="n">
-        <v>84.76023320505688</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="Y4" t="n">
-        <v>58.33406192680583</v>
+        <v>26.77543850855644</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C5" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D5" t="n">
-        <v>477.1596022224361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E5" t="n">
-        <v>477.1596022224361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y5" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>473.9875657500345</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C6" t="n">
-        <v>473.9875657500345</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="D6" t="n">
-        <v>325.0531560887832</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E6" t="n">
-        <v>165.8157010833278</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4650,19 +4652,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>304.2053859195205</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>542.809531908403</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4671,25 +4673,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>473.9875657500345</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>473.9875657500345</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X6" t="n">
-        <v>473.9875657500345</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y6" t="n">
-        <v>473.9875657500345</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4750,25 +4752,25 @@
         <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C8" t="n">
-        <v>720.6083788665362</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D8" t="n">
-        <v>720.6083788665362</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E8" t="n">
-        <v>477.1596022224361</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F8" t="n">
-        <v>233.7108255783361</v>
+        <v>216.6737094609055</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>201.2163988395569</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V8" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W8" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X8" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y8" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>269.5723599112974</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>269.5723599112974</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>269.5723599112974</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4890,13 +4892,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4905,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>588.4532163200711</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U9" t="n">
-        <v>588.4532163200711</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V9" t="n">
-        <v>588.4532163200711</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W9" t="n">
-        <v>435.6470747334852</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X9" t="n">
-        <v>227.7955745279523</v>
+        <v>477.3326586762514</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>269.5723599112974</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C11" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I11" t="n">
         <v>19.28114311021272</v>
@@ -5069,22 +5071,22 @@
         <v>591.4512093066566</v>
       </c>
       <c r="T11" t="n">
-        <v>366.1018663125844</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="U11" t="n">
-        <v>122.6530896684844</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="V11" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W11" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X11" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>194.4883050441255</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="C12" t="n">
-        <v>20.03527576299844</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="D12" t="n">
-        <v>20.03527576299844</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="E12" t="n">
-        <v>20.03527576299844</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="F12" t="n">
-        <v>20.03527576299844</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G12" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5124,13 +5126,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M12" t="n">
-        <v>542.809531908403</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N12" t="n">
-        <v>542.809531908403</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O12" t="n">
         <v>781.4136778972854</v>
@@ -5142,28 +5144,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>880.9406901255011</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T12" t="n">
-        <v>880.9406901255011</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U12" t="n">
-        <v>880.9406901255011</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="V12" t="n">
-        <v>645.7885818937584</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="W12" t="n">
-        <v>402.3398052496583</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="X12" t="n">
-        <v>194.4883050441255</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="Y12" t="n">
-        <v>194.4883050441255</v>
+        <v>271.3811041200179</v>
       </c>
     </row>
     <row r="13">
@@ -5182,10 +5184,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G13" t="n">
         <v>136.0777814360265</v>
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5297,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N15" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T15" t="n">
-        <v>738.5017031412481</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U15" t="n">
-        <v>738.5017031412481</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V15" t="n">
-        <v>738.5017031412481</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W15" t="n">
-        <v>738.5017031412481</v>
+        <v>116.7808214123601</v>
       </c>
       <c r="X15" t="n">
-        <v>530.6502029357152</v>
+        <v>116.7808214123601</v>
       </c>
       <c r="Y15" t="n">
-        <v>530.6502029357152</v>
+        <v>116.7808214123601</v>
       </c>
     </row>
     <row r="16">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>366.1018663125844</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C17" t="n">
-        <v>366.1018663125844</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D17" t="n">
-        <v>366.1018663125844</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E17" t="n">
-        <v>366.1018663125844</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F17" t="n">
-        <v>366.1018663125844</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G17" t="n">
-        <v>366.1018663125844</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>366.1018663125844</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>901.2946886937524</v>
+        <v>592.2056662008901</v>
       </c>
       <c r="C18" t="n">
-        <v>726.8416594126254</v>
+        <v>417.752636919763</v>
       </c>
       <c r="D18" t="n">
-        <v>577.9072497513741</v>
+        <v>268.8182272585117</v>
       </c>
       <c r="E18" t="n">
-        <v>418.6697947459187</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F18" t="n">
-        <v>272.1352367728036</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G18" t="n">
-        <v>133.4044113554191</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5598,13 +5600,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M18" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N18" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
         <v>781.4136778972854</v>
@@ -5616,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>933.8383477702891</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>760.421003220958</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>760.421003220958</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>760.421003220958</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>760.421003220958</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>760.421003220958</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>760.421003220958</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>760.421003220958</v>
       </c>
     </row>
     <row r="19">
@@ -5692,16 +5694,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5726,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>246.4666730769152</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C21" t="n">
-        <v>246.4666730769152</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>246.4666730769152</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>246.4666730769152</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>246.4666730769152</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5838,43 +5840,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>689.4702815141908</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U21" t="n">
-        <v>689.4702815141908</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V21" t="n">
-        <v>454.3181732824481</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W21" t="n">
-        <v>454.3181732824481</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X21" t="n">
-        <v>246.4666730769152</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="Y21" t="n">
-        <v>246.4666730769152</v>
+        <v>360.2295980564601</v>
       </c>
     </row>
     <row r="22">
@@ -5932,16 +5934,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -5987,7 +5989,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K23" t="n">
         <v>122.2961490211351</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>728.6161971483371</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>332.4649978087242</v>
+        <v>310.5702840197694</v>
       </c>
       <c r="C24" t="n">
-        <v>158.0119685275972</v>
+        <v>310.5702840197694</v>
       </c>
       <c r="D24" t="n">
-        <v>158.0119685275972</v>
+        <v>310.5702840197694</v>
       </c>
       <c r="E24" t="n">
-        <v>158.0119685275972</v>
+        <v>310.5702840197694</v>
       </c>
       <c r="F24" t="n">
-        <v>158.0119685275972</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6072,10 +6074,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6105,13 +6107,13 @@
         <v>761.8705608694022</v>
       </c>
       <c r="W24" t="n">
-        <v>761.8705608694022</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X24" t="n">
-        <v>708.4406335937462</v>
+        <v>310.5702840197694</v>
       </c>
       <c r="Y24" t="n">
-        <v>500.6803348287922</v>
+        <v>310.5702840197694</v>
       </c>
     </row>
     <row r="25">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>477.1596022224361</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="C26" t="n">
-        <v>233.7108255783361</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="D26" t="n">
-        <v>233.7108255783361</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6250,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="W26" t="n">
-        <v>720.6083788665362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="X26" t="n">
-        <v>477.1596022224361</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="Y26" t="n">
-        <v>477.1596022224361</v>
+        <v>343.8760884571613</v>
       </c>
     </row>
     <row r="27">
@@ -6306,16 +6308,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N27" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
         <v>712.019119383956</v>
@@ -6333,19 +6335,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W27" t="n">
-        <v>257.2326523711826</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X27" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
         <v>19.28114311021272</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>509.4769954460863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>509.4769954460863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>509.4769954460863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>266.0282188019862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>266.0282188019862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>266.0282188019862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>752.9257720901863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T29" t="n">
-        <v>752.9257720901863</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U29" t="n">
-        <v>752.9257720901863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V29" t="n">
-        <v>752.9257720901863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W29" t="n">
-        <v>509.4769954460863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>509.4769954460863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>509.4769954460863</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
         <v>19.28114311021272</v>
@@ -6543,49 +6545,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N30" t="n">
-        <v>781.4136778972854</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>845.3395961965716</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>617.1159779329607</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>617.1159779329607</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W30" t="n">
-        <v>373.6672012888606</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X30" t="n">
-        <v>165.8157010833278</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y30" t="n">
-        <v>165.8157010833278</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="J31" t="n">
         <v>829.5248650203655</v>
@@ -6643,28 +6645,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>233.7108255783361</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="C32" t="n">
-        <v>233.7108255783361</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="D32" t="n">
-        <v>233.7108255783361</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="E32" t="n">
-        <v>233.7108255783361</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U32" t="n">
-        <v>720.6083788665362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V32" t="n">
-        <v>477.1596022224361</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W32" t="n">
-        <v>233.7108255783361</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X32" t="n">
-        <v>233.7108255783361</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y32" t="n">
-        <v>233.7108255783361</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>252.1315786412141</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="C33" t="n">
-        <v>252.1315786412141</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D33" t="n">
-        <v>252.1315786412141</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E33" t="n">
-        <v>92.8941236357586</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F33" t="n">
         <v>19.28114311021272</v>
@@ -6780,19 +6782,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>252.1315786412141</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W33" t="n">
-        <v>252.1315786412141</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X33" t="n">
-        <v>252.1315786412141</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y33" t="n">
-        <v>252.1315786412141</v>
+        <v>816.6559320512295</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>243.9530410142718</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="C35" t="n">
-        <v>243.9530410142718</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="D35" t="n">
-        <v>243.9530410142718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E35" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>941.9819777229218</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>730.8505943024719</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T35" t="n">
-        <v>730.8505943024719</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U35" t="n">
-        <v>730.8505943024719</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V35" t="n">
-        <v>487.4018176583718</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W35" t="n">
-        <v>487.4018176583718</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X35" t="n">
-        <v>243.9530410142718</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y35" t="n">
-        <v>243.9530410142718</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>489.9572726784918</v>
+        <v>787.9255531013317</v>
       </c>
       <c r="C36" t="n">
-        <v>315.5042433973647</v>
+        <v>613.4725238202047</v>
       </c>
       <c r="D36" t="n">
-        <v>166.5698337361135</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="E36" t="n">
-        <v>166.5698337361135</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G36" t="n">
         <v>20.03527576299844</v>
@@ -7017,22 +7019,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>374.6018090363993</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>865.9329084635137</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>865.9329084635137</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>865.9329084635137</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>865.9329084635137</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>865.9329084635137</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X36" t="n">
-        <v>865.9329084635137</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y36" t="n">
-        <v>658.1726096985599</v>
+        <v>956.1408901213997</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
         <v>19.28114311021272</v>
@@ -7123,22 +7125,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X38" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y38" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="39">
@@ -7227,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>486.9119902784999</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="C39" t="n">
-        <v>312.4589609973729</v>
+        <v>381.0346734484355</v>
       </c>
       <c r="D39" t="n">
-        <v>163.5245513361216</v>
+        <v>232.1002637871842</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>496.4894350879777</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P39" t="n">
         <v>894.6625969973069</v>
@@ -7275,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U39" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V39" t="n">
-        <v>862.8876260635219</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W39" t="n">
-        <v>862.8876260635219</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="X39" t="n">
-        <v>862.8876260635219</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="Y39" t="n">
-        <v>655.1273272985679</v>
+        <v>555.4877027295624</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>752.9257720901863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>752.9257720901863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>752.9257720901863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>509.4769954460863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
-        <v>266.0282188019862</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
-        <v>22.57944215788615</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H41" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7436,25 +7438,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V41" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W41" t="n">
-        <v>752.9257720901863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X41" t="n">
-        <v>752.9257720901863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y41" t="n">
-        <v>752.9257720901863</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.28114311021272</v>
+        <v>694.6722890434539</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>520.2192597623269</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>371.2848501010757</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>212.0473950956202</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>65.51283712250515</v>
       </c>
       <c r="G42" t="n">
         <v>19.28114311021272</v>
@@ -7491,49 +7493,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T42" t="n">
-        <v>726.1056462496665</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U42" t="n">
-        <v>497.8820279860555</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V42" t="n">
-        <v>262.7299197543128</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W42" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X42" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="43">
@@ -7600,7 +7602,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
         <v>19.28114311021272</v>
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C44" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V44" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W44" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X44" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y44" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>547.1910343172051</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="C45" t="n">
-        <v>397.246007331692</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="D45" t="n">
-        <v>248.3115976704407</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="E45" t="n">
-        <v>248.3115976704407</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="F45" t="n">
-        <v>248.3115976704407</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="G45" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
         <v>19.28114311021272</v>
@@ -7731,19 +7733,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M45" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N45" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7752,25 +7754,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>790.6398109613051</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>790.6398109613051</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W45" t="n">
-        <v>547.1910343172051</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X45" t="n">
-        <v>547.1910343172051</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="Y45" t="n">
-        <v>547.1910343172051</v>
+        <v>76.77296163243852</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7985,16 +7987,16 @@
         <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
-        <v>281.6966398529821</v>
+        <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
-        <v>282.9255926065406</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>282.5834023809789</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8216,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8298,13 +8300,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>299.7328472056018</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8538,16 +8540,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8690,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8772,16 +8774,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8930,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9006,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9246,16 +9248,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9486,19 +9488,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N21" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,13 +9722,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9954,19 +9956,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O27" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10191,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,22 +10430,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10665,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>301.248502863135</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10902,10 +10904,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
@@ -10914,10 +10916,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>360.302996258564</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11139,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11148,16 +11150,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11379,13 +11381,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M45" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
         <v>142.5962444444444</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23273,10 +23275,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23309,13 +23311,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>108.137662477717</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23337,7 +23339,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23349,16 +23351,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,25 +23384,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>89.39787037255404</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>12.19782515556528</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23422,13 +23424,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>128.8756670037568</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>150.4326837156464</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
         <v>162.2271725074396</v>
@@ -23504,19 +23506,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,22 +23539,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23571,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>70.00850213074148</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23586,16 +23588,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,25 +23621,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>77.02266500177052</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23741,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>218.5474650704376</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,16 +23776,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23798,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23808,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>104.3983415011523</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -23820,19 +23822,19 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>70.24121448969953</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
@@ -23932,7 +23934,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
@@ -23941,10 +23943,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>239.2941050228172</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23966,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -24011,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24029,13 +24031,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>136.955583073971</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24045,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>1.70271224139816</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24060,16 +24062,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>25.41187805892947</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,25 +24095,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24172,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24184,7 +24186,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24206,22 +24208,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>119.2616763733422</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24248,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24257,13 +24259,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24282,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24294,13 +24296,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>106.2719242926299</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24345,13 +24347,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>152.877357200578</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24443,19 +24445,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>169.6449844288197</v>
+        <v>301.5956630564418</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24488,13 +24490,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24503,7 +24505,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>128.71681180081</v>
@@ -24573,7 +24575,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24588,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24646,10 +24648,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S28" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24695,10 +24697,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>305.6710867513173</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24722,25 +24724,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>149.0074258151476</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24756,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24768,7 +24770,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24804,19 +24806,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>182.7921791265408</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
@@ -24825,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>116.4754883813142</v>
       </c>
     </row>
     <row r="31">
@@ -24856,10 +24858,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I31" t="n">
-        <v>155.4504749272583</v>
+        <v>115.622687458563</v>
       </c>
       <c r="J31" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>22.26949182588285</v>
@@ -24883,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24923,10 +24925,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24935,7 +24937,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>140.1318817691307</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24959,25 +24961,25 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24993,19 +24995,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>72.19236167309346</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25041,19 +25043,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25062,7 +25064,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>59.75548455249168</v>
       </c>
     </row>
     <row r="34">
@@ -25114,13 +25116,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25138,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25157,25 +25159,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>292.2667739183906</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,13 +25198,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>138.0053911458572</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
@@ -25211,16 +25213,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25239,13 +25241,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25281,7 +25283,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>74.54016652718657</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25299,7 +25301,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>197.8455930419602</v>
       </c>
     </row>
     <row r="37">
@@ -25321,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25363,7 +25365,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25400,16 +25402,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>337.6653060427309</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25433,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25442,13 +25444,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>108.226679839754</v>
@@ -25457,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25467,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -25476,10 +25478,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>14.84410631175118</v>
+        <v>92.76995470484094</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25491,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,10 +25517,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -25527,7 +25529,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25536,7 +25538,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25555,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25606,7 +25608,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25634,22 +25636,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>8.683973297415827</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25676,22 +25678,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25704,22 +25706,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>91.57414009104113</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25752,22 +25754,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>136.2759056302994</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25840,10 +25842,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25862,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25907,13 +25909,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>6.725383157348119</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25925,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25944,10 +25946,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>24.26292227265779</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25956,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>80.42661682620709</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -25992,13 +25994,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26007,10 +26009,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26038,7 +26040,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
         <v>155.4504749272583</v>
@@ -26089,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>374040.1480307135</v>
+        <v>374040.1480307134</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>374040.1480307136</v>
+        <v>374040.1480307135</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>374040.1480307135</v>
+        <v>374040.1480307136</v>
       </c>
     </row>
     <row r="8">
@@ -26317,28 +26319,28 @@
         <v>574729.2389049984</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049982</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="E2" t="n">
         <v>232624.9415438654</v>
       </c>
       <c r="F2" t="n">
+        <v>232624.9415438653</v>
+      </c>
+      <c r="G2" t="n">
         <v>232624.9415438654</v>
       </c>
-      <c r="G2" t="n">
-        <v>232624.9415438655</v>
-      </c>
       <c r="H2" t="n">
+        <v>232624.9415438653</v>
+      </c>
+      <c r="I2" t="n">
         <v>232624.9415438654</v>
-      </c>
-      <c r="I2" t="n">
-        <v>232624.9415438653</v>
       </c>
       <c r="J2" t="n">
         <v>232624.9415438654</v>
       </c>
       <c r="K2" t="n">
-        <v>232624.9415438653</v>
+        <v>232624.9415438654</v>
       </c>
       <c r="L2" t="n">
         <v>232624.9415438654</v>
@@ -26347,13 +26349,13 @@
         <v>232624.9415438654</v>
       </c>
       <c r="N2" t="n">
+        <v>232624.9415438654</v>
+      </c>
+      <c r="O2" t="n">
+        <v>232624.9415438654</v>
+      </c>
+      <c r="P2" t="n">
         <v>232624.9415438653</v>
-      </c>
-      <c r="O2" t="n">
-        <v>232624.9415438653</v>
-      </c>
-      <c r="P2" t="n">
-        <v>232624.9415438654</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940137</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
         <v>60576.32218666811</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>347968.0377624266</v>
+        <v>347968.0377624267</v>
       </c>
       <c r="C4" t="n">
         <v>304227.7958470787</v>
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>171946.7601193654</v>
+        <v>171946.7601193653</v>
       </c>
       <c r="C6" t="n">
         <v>161643.8521074899</v>
       </c>
       <c r="D6" t="n">
-        <v>222220.1742941578</v>
+        <v>222220.1742941581</v>
       </c>
       <c r="E6" t="n">
         <v>192689.0045674845</v>
@@ -26534,22 +26536,22 @@
         <v>192689.0045674844</v>
       </c>
       <c r="G6" t="n">
-        <v>192689.0045674845</v>
+        <v>192689.0045674844</v>
       </c>
       <c r="H6" t="n">
         <v>192689.0045674844</v>
       </c>
       <c r="I6" t="n">
-        <v>192689.0045674844</v>
+        <v>192689.0045674845</v>
       </c>
       <c r="J6" t="n">
-        <v>178687.7724272052</v>
+        <v>178687.7724272051</v>
       </c>
       <c r="K6" t="n">
-        <v>144432.0516338518</v>
+        <v>144432.0516338519</v>
       </c>
       <c r="L6" t="n">
-        <v>192689.0045674844</v>
+        <v>192689.0045674845</v>
       </c>
       <c r="M6" t="n">
         <v>192689.0045674845</v>
@@ -26558,10 +26560,10 @@
         <v>192689.0045674844</v>
       </c>
       <c r="O6" t="n">
+        <v>192689.0045674845</v>
+      </c>
+      <c r="P6" t="n">
         <v>192689.0045674844</v>
-      </c>
-      <c r="P6" t="n">
-        <v>192689.0045674845</v>
       </c>
     </row>
   </sheetData>
@@ -27388,19 +27390,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>353.3635167317617</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>378.1596011777161</v>
+        <v>386.9942370594953</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>285.9622731058174</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>156.9633605604562</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,13 +27423,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>96.35658893119992</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>155.5075405762956</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27436,7 +27438,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>274.2397294601852</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>120.1459394241614</v>
+        <v>113.0206546399176</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,13 +27466,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>111.257836229695</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>91.55668338343412</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>83.83098815326088</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -27509,10 +27511,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>146.6521996848718</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>172.4288530710251</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27524,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>152.1701667673546</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27543,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>92.92143363661941</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27561,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,13 +27578,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>176.1224143726903</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27594,16 +27596,16 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>198.6251143138782</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>233.0104693266412</v>
       </c>
       <c r="X4" t="n">
-        <v>172.1971263790874</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>192.4227437866263</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>194.5906600982693</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>224.9573404408503</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27637,7 +27639,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,7 +27660,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27670,7 +27672,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27695,7 +27697,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>38.02299200392821</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27707,16 +27709,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27743,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -27752,7 +27754,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>19.47269854291054</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27792,13 +27794,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>24.98494807699674</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27822,7 +27824,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>115.8205630125936</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -27853,28 +27855,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>214.9666412263055</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>159.3588989437164</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27910,7 +27912,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27938,7 +27940,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27950,7 +27952,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27979,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -27992,10 +27994,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>100.4169029901996</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>24.2382961849012</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>49.36645333167576</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28035,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28071,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>175.6055225771058</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -34705,16 +34707,16 @@
         <v>53.51252900994975</v>
       </c>
       <c r="M2" t="n">
-        <v>51.35040662570936</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="N2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>51.35040662570938</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34942,7 +34944,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35018,13 +35020,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>91.0829537758999</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35033,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35258,16 +35260,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35492,16 +35494,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35656,7 +35658,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35966,16 +35968,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36206,19 +36208,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N21" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,13 +36442,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36674,19 +36676,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>99.8112771299739</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36911,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37312,7 +37314,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37385,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>169.9067907798017</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37403,7 +37405,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,10 +37624,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
@@ -37634,10 +37636,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q39" t="n">
         <v>70.09551364982758</v>
@@ -37859,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
@@ -37868,16 +37870,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38026,7 +38028,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38099,13 +38101,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1563643.159899708</v>
+        <v>1494791.863458271</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5799297.052787048</v>
+        <v>5799297.052787047</v>
       </c>
     </row>
     <row r="11">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>9.891109467671336</v>
       </c>
       <c r="G2" t="n">
-        <v>28.3085004556398</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -703,22 +703,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -746,13 +746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>46.38724422570589</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -800,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>46.38724422570589</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>26.16190956546853</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1.170977004479167</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>75.08620022294134</v>
       </c>
       <c r="G5" t="n">
-        <v>190.3453970742847</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -977,22 +977,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>134.6855069843875</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>56.17030901074575</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1147,16 +1147,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>114.0512913036181</v>
       </c>
       <c r="H8" t="n">
-        <v>180.1159031720507</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>20.5780345427497</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>181.5346890185763</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1387,58 +1387,58 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>200.3360962888297</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I11" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R11" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S11" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T11" t="n">
-        <v>114.9581870864144</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="12">
@@ -1457,22 +1457,22 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1499,19 +1499,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>57.89465792164915</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>213.7435569254095</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1551,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V14" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>96.52468151912586</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1736,25 +1736,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>29.88929839105575</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1806,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y17" t="n">
         <v>241.0142888776591</v>
@@ -1922,16 +1922,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>119.3888130423743</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>29.9166196629436</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -1982,16 +1982,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U19" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>241.0142888776591</v>
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>164.8304714084692</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2210,16 +2210,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>164.2372956765101</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2317,31 +2317,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>240.2580556792261</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -2408,19 +2408,19 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>38.79728810075396</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2450,13 +2450,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
@@ -2529,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>80.33470701582003</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X26" t="n">
         <v>241.0142888776591</v>
@@ -2684,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>29.8892983910557</v>
       </c>
       <c r="T27" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -2699,10 +2699,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,10 +2800,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>208.2638363878124</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2839,16 +2839,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>102.3382270926889</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>69.90197782146217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>89.20720739599011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2970,10 +2970,10 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>39.82778746869524</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3073,16 +3073,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="33">
@@ -3107,16 +3107,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>86.79395676827519</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3155,16 +3155,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>145.9272112248127</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3249,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3271,13 +3271,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>241.0142888776591</v>
@@ -3313,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3347,10 +3347,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>123.0545628372521</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>7.837102735344149</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3514,19 +3514,19 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
       <c r="H38" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>39.77286532336496</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,16 +3584,16 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>64.87512575056</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>56.91690033700343</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3720,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3760,10 +3760,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3796,16 +3796,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3821,19 +3821,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>156.4280676246905</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>45.7693770721695</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3866,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3884,10 +3884,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3988,64 +3988,64 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S44" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T44" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>112.3289263072337</v>
       </c>
     </row>
     <row r="45">
@@ -4061,19 +4061,19 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>56.91690033700354</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4112,16 +4112,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>187.5523171413851</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4197,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>159.9970564337892</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="C2" t="n">
-        <v>159.9970564337892</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="D2" t="n">
-        <v>159.9970564337892</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="E2" t="n">
-        <v>159.9970564337892</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="F2" t="n">
-        <v>153.0515556845857</v>
+        <v>31.80830218922787</v>
       </c>
       <c r="G2" t="n">
-        <v>124.457110779899</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="H2" t="n">
-        <v>70.40405117388919</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="I2" t="n">
         <v>16.35099156787933</v>
@@ -4336,46 +4336,46 @@
         <v>57.25840604064623</v>
       </c>
       <c r="L2" t="n">
-        <v>110.2358097604965</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="M2" t="n">
-        <v>163.2132134803467</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="N2" t="n">
-        <v>163.2132134803467</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O2" t="n">
-        <v>163.2132134803467</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>214.050116039799</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="S2" t="n">
-        <v>214.050116039799</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="T2" t="n">
-        <v>214.050116039799</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="U2" t="n">
-        <v>214.050116039799</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="V2" t="n">
-        <v>159.9970564337892</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="W2" t="n">
-        <v>159.9970564337892</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="X2" t="n">
-        <v>159.9970564337892</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="Y2" t="n">
-        <v>159.9970564337892</v>
+        <v>41.79932185354235</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>159.9970564337892</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="C3" t="n">
-        <v>159.9970564337892</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="D3" t="n">
-        <v>159.9970564337892</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="E3" t="n">
-        <v>113.1412541856014</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="F3" t="n">
-        <v>59.08819457959154</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="G3" t="n">
         <v>5.035134973581694</v>
@@ -4418,43 +4418,43 @@
         <v>4.28100232079598</v>
       </c>
       <c r="M3" t="n">
-        <v>55.11790488024824</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="N3" t="n">
         <v>108.0953086000985</v>
       </c>
       <c r="O3" t="n">
-        <v>108.0953086000985</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P3" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="S3" t="n">
-        <v>214.050116039799</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="T3" t="n">
-        <v>214.050116039799</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="U3" t="n">
-        <v>214.050116039799</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="V3" t="n">
-        <v>214.050116039799</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="W3" t="n">
-        <v>214.050116039799</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="X3" t="n">
-        <v>214.050116039799</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="Y3" t="n">
-        <v>214.050116039799</v>
+        <v>5.035134973581694</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26.77543850855644</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="C4" t="n">
-        <v>26.77543850855644</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="D4" t="n">
-        <v>26.77543850855644</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="E4" t="n">
-        <v>26.77543850855644</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="F4" t="n">
-        <v>26.77543850855644</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="G4" t="n">
-        <v>26.77543850855644</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="H4" t="n">
-        <v>26.77543850855644</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="I4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K4" t="n">
         <v>4.28100232079598</v>
@@ -4506,34 +4506,34 @@
         <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Q4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="R4" t="n">
-        <v>134.8815577205762</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="S4" t="n">
-        <v>134.8815577205762</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="T4" t="n">
-        <v>134.8815577205762</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="U4" t="n">
-        <v>134.8815577205762</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="V4" t="n">
-        <v>80.82849811456629</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="W4" t="n">
-        <v>26.77543850855644</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="X4" t="n">
-        <v>26.77543850855644</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="Y4" t="n">
-        <v>26.77543850855644</v>
+        <v>84.76023320505688</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>467.067986854209</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C5" t="n">
-        <v>467.067986854209</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D5" t="n">
-        <v>467.067986854209</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E5" t="n">
-        <v>467.067986854209</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F5" t="n">
-        <v>223.6192102101089</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
         <v>31.35113235729608</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X5" t="n">
-        <v>710.516763498309</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y5" t="n">
-        <v>710.516763498309</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>862.8876260635219</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>726.8416594126254</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>577.9072497513741</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>418.6697947459187</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>272.1352367728036</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
         <v>20.03527576299844</v>
@@ -4649,49 +4649,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M6" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>907.3194696411961</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>907.3194696411961</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>907.3194696411961</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8876260635219</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W6" t="n">
-        <v>862.8876260635219</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X6" t="n">
-        <v>862.8876260635219</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y6" t="n">
-        <v>862.8876260635219</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="7">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>467.067986854209</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C8" t="n">
-        <v>223.6192102101089</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D8" t="n">
-        <v>223.6192102101089</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E8" t="n">
-        <v>223.6192102101089</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F8" t="n">
-        <v>216.6737094609055</v>
+        <v>359.156365563381</v>
       </c>
       <c r="G8" t="n">
-        <v>201.2163988395569</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>710.516763498309</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V8" t="n">
-        <v>467.067986854209</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W8" t="n">
-        <v>467.067986854209</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X8" t="n">
-        <v>467.067986854209</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y8" t="n">
-        <v>467.067986854209</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>269.5723599112974</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="C9" t="n">
-        <v>269.5723599112974</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="D9" t="n">
-        <v>269.5723599112974</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="E9" t="n">
-        <v>110.334904905842</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="F9" t="n">
-        <v>110.334904905842</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G9" t="n">
-        <v>110.334904905842</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4892,43 +4892,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>943.2712620331113</v>
       </c>
       <c r="T9" t="n">
-        <v>660.701031422288</v>
+        <v>943.2712620331113</v>
       </c>
       <c r="U9" t="n">
-        <v>660.701031422288</v>
+        <v>715.0476437695003</v>
       </c>
       <c r="V9" t="n">
-        <v>660.701031422288</v>
+        <v>479.8955355377576</v>
       </c>
       <c r="W9" t="n">
-        <v>660.701031422288</v>
+        <v>479.8955355377576</v>
       </c>
       <c r="X9" t="n">
-        <v>477.3326586762514</v>
+        <v>479.8955355377576</v>
       </c>
       <c r="Y9" t="n">
-        <v>269.5723599112974</v>
+        <v>272.1352367728036</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>475.3318284112885</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C11" t="n">
-        <v>475.3318284112885</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D11" t="n">
-        <v>475.3318284112885</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E11" t="n">
-        <v>475.3318284112885</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F11" t="n">
-        <v>475.3318284112885</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G11" t="n">
-        <v>475.3318284112885</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H11" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5062,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>591.4512093066566</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="T11" t="n">
-        <v>475.3318284112885</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U11" t="n">
-        <v>475.3318284112885</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V11" t="n">
-        <v>475.3318284112885</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W11" t="n">
-        <v>475.3318284112885</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X11" t="n">
-        <v>475.3318284112885</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y11" t="n">
-        <v>475.3318284112885</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>271.3811041200179</v>
+        <v>325.807288741569</v>
       </c>
       <c r="C12" t="n">
-        <v>271.3811041200179</v>
+        <v>325.807288741569</v>
       </c>
       <c r="D12" t="n">
-        <v>271.3811041200179</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E12" t="n">
-        <v>271.3811041200179</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F12" t="n">
-        <v>271.3811041200179</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G12" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M12" t="n">
-        <v>383.2428491569326</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N12" t="n">
-        <v>621.8469951458151</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5147,25 +5147,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>804.4081736174116</v>
       </c>
       <c r="T12" t="n">
-        <v>487.2836868729568</v>
+        <v>804.4081736174116</v>
       </c>
       <c r="U12" t="n">
-        <v>271.3811041200179</v>
+        <v>804.4081736174116</v>
       </c>
       <c r="V12" t="n">
-        <v>271.3811041200179</v>
+        <v>569.256065385669</v>
       </c>
       <c r="W12" t="n">
-        <v>271.3811041200179</v>
+        <v>325.807288741569</v>
       </c>
       <c r="X12" t="n">
-        <v>271.3811041200179</v>
+        <v>325.807288741569</v>
       </c>
       <c r="Y12" t="n">
-        <v>271.3811041200179</v>
+        <v>325.807288741569</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5235,16 +5235,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C14" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D14" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E14" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F14" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="I14" t="n">
         <v>19.28114311021272</v>
@@ -5305,25 +5305,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T14" t="n">
-        <v>366.1018663125844</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U14" t="n">
-        <v>122.6530896684844</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V14" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W14" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X14" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y14" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="15">
@@ -5363,16 +5363,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M15" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N15" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O15" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
         <v>894.6625969973069</v>
@@ -5384,25 +5384,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>360.2295980564601</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V15" t="n">
-        <v>360.2295980564601</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W15" t="n">
-        <v>116.7808214123601</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X15" t="n">
-        <v>116.7808214123601</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y15" t="n">
-        <v>116.7808214123601</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5454,34 +5454,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C17" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5557,10 +5557,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y17" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>592.2056662008901</v>
+        <v>139.8759037590757</v>
       </c>
       <c r="C18" t="n">
-        <v>417.752636919763</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>268.8182272585117</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5597,10 +5597,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M18" t="n">
         <v>304.2053859195205</v>
@@ -5618,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>933.8383477702891</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>760.421003220958</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>760.421003220958</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U18" t="n">
-        <v>760.421003220958</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V18" t="n">
-        <v>760.421003220958</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W18" t="n">
-        <v>760.421003220958</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="X18" t="n">
-        <v>760.421003220958</v>
+        <v>347.6362025240296</v>
       </c>
       <c r="Y18" t="n">
-        <v>760.421003220958</v>
+        <v>139.8759037590757</v>
       </c>
     </row>
     <row r="19">
@@ -5694,16 +5694,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y20" t="n">
-        <v>467.067986854209</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="21">
@@ -5807,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>193.7341723913397</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>725.4530095217538</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O21" t="n">
         <v>964.0571555106362</v>
@@ -5858,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>798.1608972515351</v>
       </c>
       <c r="T21" t="n">
-        <v>588.4532163200711</v>
+        <v>798.1608972515351</v>
       </c>
       <c r="U21" t="n">
-        <v>360.2295980564601</v>
+        <v>569.9372789879242</v>
       </c>
       <c r="V21" t="n">
-        <v>360.2295980564601</v>
+        <v>334.7851707561815</v>
       </c>
       <c r="W21" t="n">
-        <v>360.2295980564601</v>
+        <v>334.7851707561815</v>
       </c>
       <c r="X21" t="n">
-        <v>360.2295980564601</v>
+        <v>334.7851707561815</v>
       </c>
       <c r="Y21" t="n">
-        <v>360.2295980564601</v>
+        <v>334.7851707561815</v>
       </c>
     </row>
     <row r="22">
@@ -5934,16 +5934,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>728.6161971483371</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C23" t="n">
-        <v>485.167420504237</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D23" t="n">
-        <v>241.7186438601369</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E23" t="n">
-        <v>241.7186438601369</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F23" t="n">
-        <v>241.7186438601369</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G23" t="n">
-        <v>241.7186438601369</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H23" t="n">
+        <v>31.35113235729608</v>
+      </c>
+      <c r="I23" t="n">
+        <v>31.35113235729608</v>
+      </c>
+      <c r="J23" t="n">
         <v>19.28114311021272</v>
-      </c>
-      <c r="I23" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="J23" t="n">
-        <v>19.28114311021275</v>
       </c>
       <c r="K23" t="n">
         <v>122.2961490211351</v>
@@ -6016,25 +6016,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T23" t="n">
-        <v>728.6161971483371</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U23" t="n">
-        <v>728.6161971483371</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V23" t="n">
-        <v>728.6161971483371</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W23" t="n">
-        <v>728.6161971483371</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X23" t="n">
-        <v>728.6161971483371</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="Y23" t="n">
-        <v>728.6161971483371</v>
+        <v>517.4848137278872</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>310.5702840197694</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C24" t="n">
-        <v>310.5702840197694</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D24" t="n">
-        <v>310.5702840197694</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>310.5702840197694</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>271.3811041200179</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6074,19 +6074,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6098,22 +6098,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V24" t="n">
-        <v>761.8705608694022</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W24" t="n">
-        <v>518.4217842253022</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X24" t="n">
-        <v>310.5702840197694</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y24" t="n">
-        <v>310.5702840197694</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="25">
@@ -6177,16 +6177,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
         <v>19.28114311021272</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>343.8760884571613</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>343.8760884571613</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>343.8760884571613</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6250,28 +6250,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>587.3248651012614</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>587.3248651012614</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>587.3248651012614</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>587.3248651012614</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
-        <v>343.8760884571613</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>343.8760884571613</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6314,16 +6314,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>249.2442489785619</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6332,22 +6332,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>933.8659450146204</v>
       </c>
       <c r="T27" t="n">
-        <v>933.9571464551993</v>
+        <v>933.8659450146204</v>
       </c>
       <c r="U27" t="n">
-        <v>705.7335281915883</v>
+        <v>705.6423267510095</v>
       </c>
       <c r="V27" t="n">
-        <v>470.5814199598456</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W27" t="n">
-        <v>227.1326433157456</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y27" t="n">
         <v>19.28114311021272</v>
@@ -6408,16 +6408,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
         <v>19.28114311021272</v>
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6487,28 +6487,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>366.1018663125844</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U29" t="n">
-        <v>262.7299197543128</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V29" t="n">
-        <v>262.7299197543128</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W29" t="n">
-        <v>262.7299197543128</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6548,46 +6548,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>893.4490971051189</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>893.4490971051189</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>691.2625024638849</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>463.038884200274</v>
       </c>
       <c r="V30" t="n">
-        <v>728.9050472788936</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="W30" t="n">
-        <v>485.4562706347935</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X30" t="n">
-        <v>277.6047704292607</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y30" t="n">
-        <v>187.4964801302808</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>333.7844730889342</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>333.7844730889342</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>333.7844730889342</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>90.33569644483418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>90.33569644483418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>90.33569644483418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>90.33569644483418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>577.2332497330343</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>577.2332497330343</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V32" t="n">
-        <v>333.7844730889342</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W32" t="n">
-        <v>333.7844730889342</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>333.7844730889342</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>333.7844730889342</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>648.4405950311615</v>
+        <v>253.4863644856259</v>
       </c>
       <c r="C33" t="n">
-        <v>473.9875657500345</v>
+        <v>253.4863644856259</v>
       </c>
       <c r="D33" t="n">
-        <v>325.0531560887832</v>
+        <v>253.4863644856259</v>
       </c>
       <c r="E33" t="n">
-        <v>165.8157010833278</v>
+        <v>253.4863644856259</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>106.9518065125109</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>106.9518065125109</v>
       </c>
       <c r="H33" t="n">
         <v>19.28114311021272</v>
@@ -6782,19 +6782,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6803,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="W33" t="n">
-        <v>964.0571555106362</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="X33" t="n">
-        <v>964.0571555106362</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="Y33" t="n">
-        <v>816.6559320512295</v>
+        <v>253.4863644856259</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>569.2254314512334</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>569.2254314512334</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F35" t="n">
         <v>262.7299197543128</v>
@@ -6961,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>812.6742080953335</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U35" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V35" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W35" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X35" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>569.2254314512334</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>787.9255531013317</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="C36" t="n">
-        <v>613.4725238202047</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="D36" t="n">
-        <v>464.5381141589534</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E36" t="n">
-        <v>305.3006591534979</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F36" t="n">
-        <v>158.7661011803829</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7046,22 +7046,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>839.7596172911897</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>839.7596172911897</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>839.7596172911897</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>839.7596172911897</v>
       </c>
       <c r="X36" t="n">
-        <v>964.0571555106362</v>
+        <v>839.7596172911897</v>
       </c>
       <c r="Y36" t="n">
-        <v>956.1408901213997</v>
+        <v>631.9993185262358</v>
       </c>
     </row>
     <row r="37">
@@ -7083,7 +7083,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G37" t="n">
         <v>19.28114311021272</v>
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>477.1596022224361</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="C38" t="n">
-        <v>477.1596022224361</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="D38" t="n">
-        <v>477.1596022224361</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="E38" t="n">
-        <v>477.1596022224361</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="F38" t="n">
-        <v>233.7108255783361</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G38" t="n">
-        <v>233.7108255783361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H38" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7201,25 +7201,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="W38" t="n">
-        <v>720.6083788665362</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="X38" t="n">
-        <v>720.6083788665362</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="Y38" t="n">
-        <v>477.1596022224361</v>
+        <v>487.4018176583718</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>555.4877027295624</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>381.0346734484355</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>232.1002637871842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>906.5653369884105</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>906.5653369884105</v>
       </c>
       <c r="T39" t="n">
-        <v>790.6398109613051</v>
+        <v>906.5653369884105</v>
       </c>
       <c r="U39" t="n">
-        <v>790.6398109613051</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="V39" t="n">
-        <v>555.4877027295624</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W39" t="n">
-        <v>555.4877027295624</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X39" t="n">
-        <v>555.4877027295624</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y39" t="n">
-        <v>555.4877027295624</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7368,13 +7368,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
         <v>19.28114311021272</v>
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C41" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D41" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E41" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G41" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7444,19 +7444,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W41" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X41" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="42">
@@ -7466,46 +7466,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>694.6722890434539</v>
+        <v>178.0434248788474</v>
       </c>
       <c r="C42" t="n">
-        <v>520.2192597623269</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D42" t="n">
-        <v>371.2848501010757</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E42" t="n">
-        <v>212.0473950956202</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
-        <v>65.51283712250515</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N42" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
         <v>964.0571555106362</v>
@@ -7514,28 +7514,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U42" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V42" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W42" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X42" t="n">
-        <v>862.8876260635219</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="Y42" t="n">
-        <v>862.8876260635219</v>
+        <v>346.2587618989155</v>
       </c>
     </row>
     <row r="43">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C44" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D44" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7672,28 +7672,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U44" t="n">
-        <v>964.0571555106362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V44" t="n">
-        <v>964.0571555106362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="W44" t="n">
-        <v>720.6083788665362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="X44" t="n">
-        <v>720.6083788665362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="Y44" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>76.77296163243852</v>
+        <v>566.8500717543842</v>
       </c>
       <c r="C45" t="n">
-        <v>76.77296163243852</v>
+        <v>566.8500717543842</v>
       </c>
       <c r="D45" t="n">
-        <v>76.77296163243852</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="E45" t="n">
-        <v>76.77296163243852</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F45" t="n">
-        <v>76.77296163243852</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H45" t="n">
         <v>19.28114311021272</v>
@@ -7730,22 +7730,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N45" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7760,19 +7760,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W45" t="n">
-        <v>492.3847606029253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X45" t="n">
-        <v>284.5332603973924</v>
+        <v>774.6103705193382</v>
       </c>
       <c r="Y45" t="n">
-        <v>76.77296163243852</v>
+        <v>566.8500717543842</v>
       </c>
     </row>
     <row r="46">
@@ -7845,10 +7845,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
         <v>19.28114311021272</v>
@@ -7984,19 +7984,19 @@
         <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
-        <v>289.278943979937</v>
+        <v>287.1168215956966</v>
       </c>
       <c r="M2" t="n">
-        <v>283.8587622372225</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>282.9255926065406</v>
       </c>
       <c r="O2" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>282.5834023809789</v>
+        <v>284.7455247652193</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8066,19 +8066,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>193.4844405477277</v>
+        <v>195.6465629319681</v>
       </c>
       <c r="N3" t="n">
-        <v>184.8542410932831</v>
+        <v>182.6921187090427</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
         <v>187.48693642428</v>
       </c>
       <c r="Q3" t="n">
-        <v>193.4943030959713</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>233.2169876979182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8540,19 +8540,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
@@ -8783,13 +8783,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>303.774711870172</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9011,19 +9011,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>301.2508595994748</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9245,13 +9245,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M18" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9406,7 +9406,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9482,19 +9482,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>255.5148970497678</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -9722,22 +9722,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9962,19 +9962,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>357.7767872515269</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10196,22 +10196,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,13 +10439,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>371.3463732493024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10667,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>349.0484638974528</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,16 +10913,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11141,22 +11141,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O42" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11378,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23275,13 +23275,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,16 +23302,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>8.68397329741569</v>
       </c>
       <c r="T11" t="n">
-        <v>108.137662477717</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23320,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23345,22 +23345,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23387,19 +23387,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>113.7885131821887</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>12.19782515556528</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23424,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>128.8756670037568</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23439,10 +23439,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23515,7 +23515,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>158.0503210826583</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>70.00850213074148</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23624,25 +23624,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>175.8836868124217</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23740,22 +23740,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23797,7 +23797,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y17" t="n">
         <v>145.2236497783945</v>
@@ -23810,16 +23810,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>53.3196859459414</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23831,7 +23831,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>70.24121448969953</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23870,16 +23870,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23934,7 +23934,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
@@ -23943,10 +23943,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
-        <v>239.2941050228172</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24031,10 +24031,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
         <v>145.2236497783945</v>
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.70271224139816</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24059,7 +24059,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -24071,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24098,16 +24098,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>7.445875427327678</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -24174,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24186,7 +24186,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>142.4757859842545</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24220,16 +24220,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>119.2616763733422</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24296,19 +24296,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>106.2719242926299</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24338,13 +24338,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>171.1123110561968</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
@@ -24417,7 +24417,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24429,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>301.5956630564418</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24490,13 +24490,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24505,7 +24505,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X26" t="n">
         <v>128.71681180081</v>
@@ -24572,10 +24572,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>141.7938727127821</v>
       </c>
       <c r="T27" t="n">
-        <v>170.3657197299391</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24587,10 +24587,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24648,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24660,7 +24660,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24688,10 +24688,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>198.612209353899</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24703,7 +24703,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24727,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>149.0074258151476</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24782,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>30.25585633118096</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>116.4754883813142</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24858,10 +24858,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I31" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K31" t="n">
         <v>22.26949182588285</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24925,7 +24925,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24937,7 +24937,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>140.1318817691307</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24961,16 +24961,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24982,10 +24982,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24995,16 +24995,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -25013,7 +25013,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>25.44148746822127</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25043,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25064,7 +25064,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>59.75548455249168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25137,10 +25137,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25159,13 +25159,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>292.2667739183906</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
         <v>174.288448637476</v>
@@ -25201,16 +25201,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>21.14182795086677</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25235,10 +25235,10 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25256,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25286,7 +25286,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>77.11016585756953</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -25301,7 +25301,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>197.8455930419602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25323,10 +25323,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H37" t="n">
         <v>162.2271725074396</v>
@@ -25402,19 +25402,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>337.6653060427309</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>211.5727875844715</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25472,16 +25472,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>92.76995470484094</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>43.24093381563971</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25608,7 +25608,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25648,10 +25648,10 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25684,16 +25684,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25709,19 +25709,19 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>16.28043136362524</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>91.57414009104113</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25730,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,13 +25754,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25772,10 +25772,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25876,13 +25876,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25912,28 +25912,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>273.9090123488199</v>
       </c>
     </row>
     <row r="45">
@@ -25949,19 +25949,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>80.42661682620709</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -26000,16 +26000,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>18.22066806209241</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>374040.1480307134</v>
+        <v>374040.1480307135</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>374040.1480307136</v>
+        <v>374040.1480307135</v>
       </c>
     </row>
     <row r="8">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>374040.1480307136</v>
+        <v>374040.1480307135</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>374040.1480307135</v>
+        <v>374040.1480307134</v>
       </c>
     </row>
     <row r="15">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049984</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="E2" t="n">
         <v>232624.9415438654</v>
       </c>
       <c r="F2" t="n">
-        <v>232624.9415438653</v>
+        <v>232624.9415438654</v>
       </c>
       <c r="G2" t="n">
         <v>232624.9415438654</v>
@@ -26343,19 +26343,19 @@
         <v>232624.9415438654</v>
       </c>
       <c r="L2" t="n">
-        <v>232624.9415438654</v>
+        <v>232624.9415438653</v>
       </c>
       <c r="M2" t="n">
         <v>232624.9415438654</v>
       </c>
       <c r="N2" t="n">
-        <v>232624.9415438654</v>
+        <v>232624.9415438653</v>
       </c>
       <c r="O2" t="n">
         <v>232624.9415438654</v>
       </c>
       <c r="P2" t="n">
-        <v>232624.9415438653</v>
+        <v>232624.9415438654</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>171946.7601193653</v>
+        <v>171946.7601193654</v>
       </c>
       <c r="C6" t="n">
         <v>161643.8521074899</v>
       </c>
       <c r="D6" t="n">
-        <v>222220.1742941581</v>
+        <v>222220.1742941579</v>
       </c>
       <c r="E6" t="n">
-        <v>192689.0045674845</v>
+        <v>180470.993947444</v>
       </c>
       <c r="F6" t="n">
-        <v>192689.0045674844</v>
+        <v>180470.993947444</v>
       </c>
       <c r="G6" t="n">
-        <v>192689.0045674844</v>
+        <v>180470.993947444</v>
       </c>
       <c r="H6" t="n">
-        <v>192689.0045674844</v>
+        <v>180470.9939474439</v>
       </c>
       <c r="I6" t="n">
-        <v>192689.0045674845</v>
+        <v>180470.993947444</v>
       </c>
       <c r="J6" t="n">
-        <v>178687.7724272051</v>
+        <v>166469.7618071647</v>
       </c>
       <c r="K6" t="n">
-        <v>144432.0516338519</v>
+        <v>132214.0410138114</v>
       </c>
       <c r="L6" t="n">
-        <v>192689.0045674845</v>
+        <v>180470.9939474439</v>
       </c>
       <c r="M6" t="n">
-        <v>192689.0045674845</v>
+        <v>180470.993947444</v>
       </c>
       <c r="N6" t="n">
-        <v>192689.0045674844</v>
+        <v>180470.9939474439</v>
       </c>
       <c r="O6" t="n">
-        <v>192689.0045674845</v>
+        <v>180470.993947444</v>
       </c>
       <c r="P6" t="n">
-        <v>192689.0045674844</v>
+        <v>180470.993947444</v>
       </c>
     </row>
   </sheetData>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>396.9849362740401</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>386.9942370594953</v>
-      </c>
       <c r="H2" t="n">
-        <v>285.9622731058174</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>156.9633605604562</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27423,22 +27423,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>96.35658893119992</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>155.5075405762956</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>169.5833205541816</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>274.2397294601852</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>113.0206546399176</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27466,13 +27466,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>111.257836229695</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>91.55668338343412</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>83.83098815326088</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>46.64530514269338</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>118.1706420938881</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27520,10 +27520,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>205.3077389352137</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>152.2604561935277</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>122.4535634527438</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27557,13 +27557,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>101.9379459173085</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,13 +27578,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>176.1224143726903</v>
+        <v>123.7808623672197</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27596,10 +27596,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>198.6251143138782</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>233.0104693266412</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27627,10 +27627,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>331.7898455187701</v>
       </c>
       <c r="G5" t="n">
-        <v>224.9573404408503</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27697,22 +27697,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>38.02299200392821</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>43.98752514189738</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27751,19 +27751,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27867,16 +27867,16 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>301.251446211517</v>
       </c>
       <c r="H8" t="n">
-        <v>159.3588989437164</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27900,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27940,19 +27940,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,25 +27979,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>151.1051365610881</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>24.2382961849012</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>49.36645333167576</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28031,13 +28031,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>44.5329991677731</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -34704,19 +34704,19 @@
         <v>53.51252900994975</v>
       </c>
       <c r="L2" t="n">
+        <v>51.35040662570935</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>51.35040662570938</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34786,19 +34786,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>53.51252900994975</v>
+      </c>
+      <c r="N3" t="n">
         <v>51.35040662570935</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,13 +35017,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35035,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35503,13 +35503,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35658,7 +35658,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35731,19 +35731,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>169.9091475161415</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35965,13 +35965,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M18" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -36202,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>113.3808631277495</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36682,19 +36682,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>226.4350751681936</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36916,22 +36916,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
@@ -37159,13 +37159,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N36" t="n">
-        <v>217.7067518141195</v>
-      </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37633,16 +37633,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
       <c r="P39" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N42" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O42" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38025,10 +38025,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N44" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N45" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
